--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_1_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_1_sawtooth_01_.xlsx
@@ -581,69 +581,73 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.34000000000005</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5989889316149757</v>
+        <v>0.1440164597546433</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5989889316149757</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.1440164597546433</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4219988657621125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4219988657621125</v>
+      </c>
       <c r="L2" t="n">
-        <v>3.778578819898081</v>
+        <v>7.300777071580573</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.2997628734159345, 13.856920513212097]</t>
+          <t>[-1.6452518369844, 16.246805980145545]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4541058482657538</v>
+        <v>0.1072095088975633</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4541058482657538</v>
+        <v>0.1072095088975633</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9434212172942322</v>
+        <v>-1.471737098979002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.075579658711082, 2.188737224122618]</t>
+          <t>[-3.2076321388003883, 0.2641579408423844]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5471267731012854</v>
+        <v>0.09460028812555166</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5471267731012854</v>
+        <v>0.09460028812555166</v>
       </c>
       <c r="T2" t="n">
-        <v>13.96099101845796</v>
+        <v>12.13084811921328</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.662243814719776, 19.25973822219614]</t>
+          <t>[7.105696358679816, 17.155999879746744]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.292223640816161e-06</v>
+        <v>1.453900044534606e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.292223640816161e-06</v>
+        <v>1.453900044534606e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>3.354354354354363</v>
+        <v>5.153153153153152</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.782102102102117</v>
+        <v>-0.9249249249249232</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.49081081081084</v>
+        <v>11.23123123123123</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +671,73 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.34000000000005</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2582284322739099</v>
+        <v>0.3551720161778551</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2582284322739099</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.3551720161778551</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1864721989261177</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1864721989261177</v>
+      </c>
       <c r="L3" t="n">
-        <v>4.579398889811455</v>
+        <v>3.557274306929711</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.3639917335559257, 11.522789513178836]</t>
+          <t>[-2.577868043767721, 9.692416657627144]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.190754125508648</v>
+        <v>0.2490313425720503</v>
       </c>
       <c r="O3" t="n">
-        <v>0.190754125508648</v>
+        <v>0.2490313425720503</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.031473864241693</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.1636323056585445, 2.1006845771751577]</t>
+          <t>[-4.616474489959776, 1.5975265946182322]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5105355640483507</v>
+        <v>0.3330527417041611</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5105355640483507</v>
+        <v>0.3330527417041611</v>
       </c>
       <c r="T3" t="n">
-        <v>13.04574963222484</v>
+        <v>9.692078691525204</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.154670164658894, 16.936829099790792]</t>
+          <t>[6.312234550951747, 13.071922832098661]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.372674612338699e-08</v>
+        <v>6.714618774328329e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.372674612338699e-08</v>
+        <v>6.714618774328329e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.667427427427434</v>
+        <v>5.285285285285287</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.46902902902905</v>
+        <v>-5.593593593593591</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.80388388388392</v>
+        <v>16.16416416416416</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +761,73 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.34000000000005</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6758539343827568</v>
+        <v>0.2967951448490087</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6758539343827568</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.2967951448490087</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.06028187891654768</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06028187891654768</v>
+      </c>
       <c r="L4" t="n">
-        <v>2.515704845794932</v>
+        <v>5.615779468983182</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.287884681927677, 10.319294373517542]</t>
+          <t>[-3.335005892213725, 14.566564830180088]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5194434384553372</v>
+        <v>0.2128590191419866</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5194434384553372</v>
+        <v>0.2128590191419866</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3018947895341544</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.4277637561690435, 2.8239741771007347]</t>
+          <t>[-3.0881321179431205, 2.811395227536812]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.846643449441578</v>
+        <v>0.9251487428858218</v>
       </c>
       <c r="S4" t="n">
-        <v>0.846643449441578</v>
+        <v>0.9251487428858218</v>
       </c>
       <c r="T4" t="n">
-        <v>11.97479130972571</v>
+        <v>14.58079714595538</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.817231385199207, 16.13235123425221]</t>
+          <t>[9.331791531293256, 19.829802760617497]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.156824594594212e-07</v>
+        <v>1.242216467023383e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>6.156824594594212e-07</v>
+        <v>1.242216467023383e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.073393393393399</v>
+        <v>0.4844844844844829</v>
       </c>
       <c r="Y4" t="n">
-        <v>-10.04070070070072</v>
+        <v>-9.843843843843846</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.18748748748752</v>
+        <v>10.81281281281281</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1234023835977408</v>
+        <v>0.703232178777609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1234023835977408</v>
+        <v>0.703232178777609</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.368826354273937</v>
+        <v>2.88046164099539</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.0229756055020474, 13.76062831404992]</t>
+          <t>[-6.152965217010716, 11.913888499001494]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08952057390684942</v>
+        <v>0.523981698327725</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08952057390684942</v>
+        <v>0.523981698327725</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04402632347373014</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.522052897234695, 1.6101055441821552]</t>
+          <t>[-2.9560531475219274, 3.270526886620004]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9550974703285566</v>
+        <v>0.9194289436956</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9550974703285566</v>
+        <v>0.9194289436956</v>
       </c>
       <c r="T5" t="n">
-        <v>13.66635525717075</v>
+        <v>13.28567502324668</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.278402136499732, 18.054308377841767]</t>
+          <t>[8.310030039289916, 18.26132000720344]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.226992403235982e-07</v>
+        <v>2.589092273685978e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.226992403235982e-07</v>
+        <v>2.589092273685978e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>23.12680680680701</v>
+        <v>22.11243243243254</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.32179179179195</v>
+        <v>10.87459459459465</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.93182182182208</v>
+        <v>33.35027027027043</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1865305855684369</v>
+        <v>0.2695561845481641</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1865305855684369</v>
+        <v>0.2695561845481641</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.256008778899371</v>
+        <v>5.212726710360004</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.297154190812556, 17.8091717486113]</t>
+          <t>[-2.9249280512897062, 13.350381472009714]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1729319200698043</v>
+        <v>0.2035816774843107</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1729319200698043</v>
+        <v>0.2035816774843107</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4968685077749617</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.528368862348542, 3.5221058778984653]</t>
+          <t>[-3.188763714454505, 3.012658420559581]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.742331953199908</v>
+        <v>0.9546425742490989</v>
       </c>
       <c r="S6" t="n">
-        <v>0.742331953199908</v>
+        <v>0.9546425742490989</v>
       </c>
       <c r="T6" t="n">
-        <v>16.37668131500023</v>
+        <v>12.50639588314922</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.80532600737829, 21.948036622622162]</t>
+          <t>[7.870987977320247, 17.14180378897819]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.099007417934786e-07</v>
+        <v>2.141725857551791e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.099007417934786e-07</v>
+        <v>2.141725857551791e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>21.44824824824844</v>
+        <v>0.317837837837839</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.23454454454464</v>
+        <v>-10.87459459459465</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.66195195195223</v>
+        <v>11.51027027027033</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0913819384757889</v>
+        <v>0.7025127118707102</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0913819384757889</v>
+        <v>0.7025127118707102</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.256666220153237</v>
+        <v>2.636493175337765</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.4200846811351244, 13.933417121441598]</t>
+          <t>[-5.827940239633944, 11.100926590309474]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1076602974381091</v>
+        <v>0.5335997237445329</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1076602974381091</v>
+        <v>0.5335997237445329</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5094474573388847</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.547210796362541, 2.5661057110403105]</t>
+          <t>[-2.6793162571156195, 3.5975795752820066]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.620275588896197</v>
+        <v>0.7696175364139082</v>
       </c>
       <c r="S7" t="n">
-        <v>0.620275588896197</v>
+        <v>0.7696175364139082</v>
       </c>
       <c r="T7" t="n">
-        <v>12.27855379738259</v>
+        <v>14.06606860005096</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.29174982744281, 16.26535776732237]</t>
+          <t>[9.562229222600347, 18.569907977501583]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.558934956680247e-07</v>
+        <v>1.156233362387127e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.558934956680247e-07</v>
+        <v>1.156233362387127e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>21.40162162162181</v>
+        <v>21.0227027027028</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.77816816816829</v>
+        <v>9.694054054054092</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.02507507507533</v>
+        <v>32.3513513513515</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1264577569299764</v>
+        <v>0.5850399622987384</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1264577569299764</v>
+        <v>0.5850399622987384</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.948519192293846</v>
+        <v>3.63788103895748</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.0693270663421917, 14.966365450929883]</t>
+          <t>[-6.1356548216419045, 13.411416899556865]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08772571789546491</v>
+        <v>0.4573463175153076</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08772571789546491</v>
+        <v>0.4573463175153076</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08176317216550011</v>
+        <v>0.672973801669885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.522052897234695, 1.6855792415656952]</t>
+          <t>[-2.465474114528927, 3.811421717868697]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9186733351230876</v>
+        <v>0.6678896260132721</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9186733351230876</v>
+        <v>0.6678896260132721</v>
       </c>
       <c r="T8" t="n">
-        <v>12.48324840823181</v>
+        <v>12.48429119084329</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.666202904342754, 17.300293912120864]</t>
+          <t>[7.50432666885631, 17.464255712830273]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.414622841286686e-06</v>
+        <v>7.80862506988278e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.414622841286686e-06</v>
+        <v>7.80862506988278e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>22.98692692692713</v>
+        <v>20.25081081081091</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.04203203203218</v>
+        <v>8.922162162162207</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.93182182182207</v>
+        <v>31.57945945945961</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3744916480049825</v>
+        <v>0.4682021383530869</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3744916480049825</v>
+        <v>0.4682021383530869</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.063301163849337</v>
+        <v>3.725575816660973</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.284187084900859, 11.410789412599533]</t>
+          <t>[-4.388259007639515, 11.83941064096146]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.271262977003542</v>
+        <v>0.360001583434701</v>
       </c>
       <c r="O9" t="n">
-        <v>0.271262977003542</v>
+        <v>0.360001583434701</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3207632138800385</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.80510575275485, 3.446632180514927]</t>
+          <t>[-2.390000417145388, 3.886895415252236]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.8371932001080262</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8371932001080262</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="T9" t="n">
-        <v>11.80386034593536</v>
+        <v>11.49210642433685</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.677059028905067, 15.930661662965644]</t>
+          <t>[7.2366275540169624, 15.74758529465674]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.060435061045922e-07</v>
+        <v>2.105139142116741e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>7.060435061045922e-07</v>
+        <v>2.105139142116741e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>22.10102102102121</v>
+        <v>19.97837837837847</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5143043043044</v>
+        <v>8.649729729729772</v>
       </c>
       <c r="Z9" t="n">
-        <v>33.68773773773803</v>
+        <v>31.30702702702717</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4243022608400976</v>
+        <v>0.11014206753413</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4243022608400976</v>
+        <v>0.11014206753413</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.684764990512255</v>
+        <v>8.009105042274346</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.023061735973943, 14.392591716998453]</t>
+          <t>[-1.4479066222667534, 17.466116706815445]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3362671119592373</v>
+        <v>0.09495157710777491</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3362671119592373</v>
+        <v>0.09495157710777491</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8993948938205012</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, 4.037842810019313]</t>
+          <t>[-0.9874475407679633, 3.2642374118380424]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.2865322495374334</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.2865322495374334</v>
       </c>
       <c r="T10" t="n">
-        <v>12.81321529788733</v>
+        <v>13.1560286872988</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.789200913300359, 17.8372296824743]</t>
+          <t>[7.963772933427447, 18.34828444117016]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.826514980045161e-06</v>
+        <v>6.516937814948776e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.826514980045161e-06</v>
+        <v>6.516937814948776e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.95619619619637</v>
+        <v>18.5708108108109</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.322852852852925</v>
+        <v>10.89729729729735</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.58953953953981</v>
+        <v>26.24432432432445</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_1_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_1_sawtooth_01_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1440164597546433</v>
+        <v>0.3299439177490253</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1440164597546433</v>
+        <v>0.3299439177490253</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4219988657621125</v>
+        <v>0.3075915144904748</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4219988657621125</v>
+        <v>0.3075915144904748</v>
       </c>
       <c r="L2" t="n">
-        <v>7.300777071580573</v>
+        <v>5.893972402375913</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.6452518369844, 16.246805980145545]</t>
+          <t>[-4.581035281219143, 16.368980085970968]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1072095088975633</v>
+        <v>0.2631004591631332</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1072095088975633</v>
+        <v>0.2631004591631332</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.471737098979002</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.2076321388003883, 0.2641579408423844]</t>
+          <t>[-5.220264069028085, 0.9685791164220792]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.09460028812555166</v>
+        <v>0.1732842938667536</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09460028812555166</v>
+        <v>0.1732842938667536</v>
       </c>
       <c r="T2" t="n">
-        <v>12.13084811921328</v>
+        <v>13.51816045102753</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.105696358679816, 17.155999879746744]</t>
+          <t>[8.096209796345335, 18.940111105709732]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.453900044534606e-05</v>
+        <v>8.559860301238231e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.453900044534606e-05</v>
+        <v>8.559860301238231e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.153153153153152</v>
+        <v>7.443443443443444</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9249249249249232</v>
+        <v>-3.391391391391393</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.23123123123123</v>
+        <v>18.27827827827828</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3551720161778551</v>
+        <v>0.03354921788676024</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3551720161778551</v>
+        <v>0.03354921788676024</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1864721989261177</v>
+        <v>0.126715096094856</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1864721989261177</v>
+        <v>0.126715096094856</v>
       </c>
       <c r="L3" t="n">
-        <v>3.557274306929711</v>
+        <v>9.172184897795436</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.577868043767721, 9.692416657627144]</t>
+          <t>[-0.09853134009455644, 18.442901135685428]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2490313425720503</v>
+        <v>0.05238065632142885</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2490313425720503</v>
+        <v>0.05238065632142885</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.509473947670772</v>
+        <v>-0.9434212172942322</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.616474489959776, 1.5975265946182322]</t>
+          <t>[-2.6793162571156195, 0.792473822527155]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3330527417041611</v>
+        <v>0.279507054400721</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3330527417041611</v>
+        <v>0.279507054400721</v>
       </c>
       <c r="T3" t="n">
-        <v>9.692078691525204</v>
+        <v>15.2305713229434</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.312234550951747, 13.071922832098661]</t>
+          <t>[10.372834822258788, 20.08830782362802]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.714618774328329e-07</v>
+        <v>1.062950534258533e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>6.714618774328329e-07</v>
+        <v>1.062950534258533e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.285285285285287</v>
+        <v>3.303303303303302</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.593593593593591</v>
+        <v>-2.774774774774777</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.16416416416416</v>
+        <v>9.381381381381381</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2967951448490087</v>
+        <v>0.2746011919257058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2967951448490087</v>
+        <v>0.2746011919257058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06028187891654768</v>
+        <v>0.4853228069786771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06028187891654768</v>
+        <v>0.4853228069786771</v>
       </c>
       <c r="L4" t="n">
-        <v>5.615779468983182</v>
+        <v>5.315081963432608</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.335005892213725, 14.566564830180088]</t>
+          <t>[-2.892699062318254, 13.52286298918347]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2128590191419866</v>
+        <v>0.1987750128584616</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2128590191419866</v>
+        <v>0.1987750128584616</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-1.383684452031541</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.0881321179431205, 2.811395227536812]</t>
+          <t>[-4.496974469102507, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.9251487428858218</v>
+        <v>0.3754664711925431</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9251487428858218</v>
+        <v>0.3754664711925431</v>
       </c>
       <c r="T4" t="n">
-        <v>14.58079714595538</v>
+        <v>12.80759633639487</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.331791531293256, 19.829802760617497]</t>
+          <t>[8.27454006249907, 17.34065261029066]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.242216467023383e-06</v>
+        <v>8.970302369792904e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.242216467023383e-06</v>
+        <v>8.970302369792904e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4844844844844829</v>
+        <v>4.844844844844847</v>
       </c>
       <c r="Y4" t="n">
-        <v>-9.843843843843846</v>
+        <v>-6.056056056056054</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.81281281281281</v>
+        <v>15.74574574574575</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.703232178777609</v>
+        <v>0.1083250201996151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.703232178777609</v>
+        <v>0.1083250201996151</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.88046164099539</v>
+        <v>7.123582309611759</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.152965217010716, 11.913888499001494]</t>
+          <t>[-0.9146896261174202, 15.161854245340939]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.523981698327725</v>
+        <v>0.08101691508088371</v>
       </c>
       <c r="O5" t="n">
-        <v>0.523981698327725</v>
+        <v>0.08101691508088371</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1572368695490383</v>
+        <v>-0.1132105460753081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.9560531475219274, 3.270526886620004]</t>
+          <t>[-1.7044476659115801, 1.478026573760964]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9194289436956</v>
+        <v>0.8866962511093477</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9194289436956</v>
+        <v>0.8866962511093477</v>
       </c>
       <c r="T5" t="n">
-        <v>13.28567502324668</v>
+        <v>12.65013509284801</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.310030039289916, 18.26132000720344]</t>
+          <t>[7.919598640335586, 17.380671545360443]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.589092273685978e-06</v>
+        <v>2.519563309988371e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.589092273685978e-06</v>
+        <v>2.519563309988371e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>22.11243243243254</v>
+        <v>0.4250450450450494</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.87459459459465</v>
+        <v>-5.54919919919926</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.35027027027043</v>
+        <v>6.399289289289358</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2695561845481641</v>
+        <v>0.5728899306821281</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2695561845481641</v>
+        <v>0.5728899306821281</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.212726710360004</v>
+        <v>4.171843084848292</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.9249280512897062, 13.350381472009714]</t>
+          <t>[-5.759803952604499, 14.103490122301082]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2035816774843107</v>
+        <v>0.4020096361791134</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2035816774843107</v>
+        <v>0.4020096361791134</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.188763714454505, 3.012658420559581]</t>
+          <t>[-3.396316382259236, 2.8428426014466193]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9546425742490989</v>
+        <v>0.8589984512237567</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9546425742490989</v>
+        <v>0.8589984512237567</v>
       </c>
       <c r="T6" t="n">
-        <v>12.50639588314922</v>
+        <v>17.03584481933025</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.870987977320247, 17.14180378897819]</t>
+          <t>[11.407636510383654, 22.664053128276848]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.141725857551791e-06</v>
+        <v>2.24533916570735e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.141725857551791e-06</v>
+        <v>2.24533916570735e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.317837837837839</v>
+        <v>1.038998998999009</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.87459459459465</v>
+        <v>-10.67335335335347</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.51027027027033</v>
+        <v>12.75135135135148</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7025127118707102</v>
+        <v>0.1700743509870744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7025127118707102</v>
+        <v>0.1700743509870744</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2.636493175337765</v>
+        <v>5.564484343516407</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.827940239633944, 11.100926590309474]</t>
+          <t>[-2.030989347079622, 13.159958034112435]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.5335997237445329</v>
+        <v>0.1470299364544663</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5335997237445329</v>
+        <v>0.1470299364544663</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4591316590831935</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, 3.5975795752820066]</t>
+          <t>[-2.6541583579877734, 2.151000375430849]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7696175364139082</v>
+        <v>0.8339167733073949</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7696175364139082</v>
+        <v>0.8339167733073949</v>
       </c>
       <c r="T7" t="n">
-        <v>14.06606860005096</v>
+        <v>11.82500525260434</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.562229222600347, 18.569907977501583]</t>
+          <t>[7.670235936299752, 15.979774568908931]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.156233362387127e-07</v>
+        <v>7.780902582243954e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.156233362387127e-07</v>
+        <v>7.780902582243954e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>21.0227027027028</v>
+        <v>0.9445445445445593</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.694054054054092</v>
+        <v>-8.075855855855936</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.3513513513515</v>
+        <v>9.964944944945055</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5850399622987384</v>
+        <v>0.2354086651145378</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5850399622987384</v>
+        <v>0.2354086651145378</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.63788103895748</v>
+        <v>5.304688048995986</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.1356548216419045, 13.411416899556865]</t>
+          <t>[-2.5476176162861783, 13.156993714278151]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4573463175153076</v>
+        <v>0.1804027056348798</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4573463175153076</v>
+        <v>0.1804027056348798</v>
       </c>
       <c r="P8" t="n">
-        <v>0.672973801669885</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.465474114528927, 3.811421717868697]</t>
+          <t>[-2.874289975356427, 3.2893953109658893]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6678896260132721</v>
+        <v>0.8927079286328428</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6678896260132721</v>
+        <v>0.8927079286328428</v>
       </c>
       <c r="T8" t="n">
-        <v>12.48429119084329</v>
+        <v>11.97350196159459</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.50432666885631, 17.464255712830273]</t>
+          <t>[7.574486020442654, 16.372517902746523]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.80862506988278e-06</v>
+        <v>1.820466049018421e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>7.80862506988278e-06</v>
+        <v>1.820466049018421e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.25081081081091</v>
+        <v>22.81075075075099</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.922162162162207</v>
+        <v>11.2400800800802</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.57945945945961</v>
+        <v>34.38142142142178</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4682021383530869</v>
+        <v>0.06434411022327446</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4682021383530869</v>
+        <v>0.06434411022327446</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.725575816660973</v>
+        <v>7.829606809160262</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.388259007639515, 11.83941064096146]</t>
+          <t>[-0.9636072741899468, 16.62282089251047]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.360001583434701</v>
+        <v>0.07963297224409716</v>
       </c>
       <c r="O9" t="n">
-        <v>0.360001583434701</v>
+        <v>0.07963297224409716</v>
       </c>
       <c r="P9" t="n">
-        <v>0.748447499053424</v>
+        <v>0.3962369112635766</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, 3.886895415252236]</t>
+          <t>[-1.2956318050840787, 2.088105627611232]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.639416935251794</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.639416935251794</v>
       </c>
       <c r="T9" t="n">
-        <v>11.49210642433685</v>
+        <v>14.27153883289206</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.2366275540169624, 15.74758529465674]</t>
+          <t>[9.629765094287976, 18.913312571496142]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.105139142116741e-06</v>
+        <v>1.615971334523181e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.105139142116741e-06</v>
+        <v>1.615971334523181e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>19.97837837837847</v>
+        <v>22.10234234234258</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.649729729729772</v>
+        <v>15.75028028028045</v>
       </c>
       <c r="Z9" t="n">
-        <v>31.30702702702717</v>
+        <v>28.4544044044047</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11014206753413</v>
+        <v>0.2523876286743465</v>
       </c>
       <c r="I10" t="n">
-        <v>0.11014206753413</v>
+        <v>0.2523876286743465</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.009105042274346</v>
+        <v>5.160911470641869</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.4479066222667534, 17.466116706815445]</t>
+          <t>[-3.017439110979982, 13.33926205226372]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09495157710777491</v>
+        <v>0.2102629619860195</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09495157710777491</v>
+        <v>0.2102629619860195</v>
       </c>
       <c r="P10" t="n">
-        <v>1.13839493553504</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.9874475407679633, 3.2642374118380424]</t>
+          <t>[-3.685632222229467, 2.5283688623485414]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2865322495374334</v>
+        <v>0.7093510995496937</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2865322495374334</v>
+        <v>0.7093510995496937</v>
       </c>
       <c r="T10" t="n">
-        <v>13.1560286872988</v>
+        <v>11.59320252477749</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.963772933427447, 18.34828444117016]</t>
+          <t>[7.2199555737599574, 15.966449475795017]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.516937814948776e-06</v>
+        <v>2.950053499706229e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>6.516937814948776e-06</v>
+        <v>2.950053499706229e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5708108108109</v>
+        <v>2.172452452452475</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.89729729729735</v>
+        <v>-9.492672672672771</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.24432432432445</v>
+        <v>13.83757757757772</v>
       </c>
     </row>
   </sheetData>
